--- a/_posts/DDKJ/12、redis加强/1.1、Redis 五种基本数据类型比较2.xlsx
+++ b/_posts/DDKJ/12、redis加强/1.1、Redis 五种基本数据类型比较2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32720" windowHeight="20540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32520" windowHeight="20540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2484,8 +2484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/_posts/DDKJ/12、redis加强/1.1、Redis 五种基本数据类型比较2.xlsx
+++ b/_posts/DDKJ/12、redis加强/1.1、Redis 五种基本数据类型比较2.xlsx
@@ -2484,8 +2484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/_posts/DDKJ/12、redis加强/1.1、Redis 五种基本数据类型比较2.xlsx
+++ b/_posts/DDKJ/12、redis加强/1.1、Redis 五种基本数据类型比较2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32520" windowHeight="20540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ttl k1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10、查看数据类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1154,24 +1150,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1.添加数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>sadd  myset a b c</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">1、删除元素
 </t>
     </r>
@@ -1521,10 +1499,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.cnblogs.com/wanzaixiaoxin/p/4934117.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1735,6 +1709,35 @@
       </rPr>
       <t xml:space="preserve">
 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ttl k1
+-1永不过期
+-2已经过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/wanzaixiaoxin/p/4934117.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.添加数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sadd  myset a b c
+如果数据为空，即使有过期时间，也自动删除,如果是添加数据操作，则不会印象过期时间(其它类型也是一样的，只要为空，就是删除了，ttl查询是-2)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2073,7 +2076,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2175,6 +2178,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2484,15 +2490,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" customWidth="1"/>
     <col min="4" max="4" width="44.1640625" customWidth="1"/>
     <col min="5" max="5" width="63.33203125" customWidth="1"/>
     <col min="6" max="6" width="26.33203125" customWidth="1"/>
@@ -2510,7 +2516,7 @@
   <sheetData>
     <row r="1" spans="1:53" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
@@ -2523,7 +2529,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>10</v>
@@ -2548,16 +2554,16 @@
         <v>21</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -2601,7 +2607,7 @@
     <row r="3" spans="1:53" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32"/>
       <c r="B3" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>8</v>
@@ -2625,20 +2631,20 @@
       <c r="J3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>22</v>
+      <c r="K3" s="36" t="s">
+        <v>68</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
@@ -2688,25 +2694,25 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="G5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -2722,25 +2728,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -2754,7 +2760,7 @@
     <row r="7" spans="1:53" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33"/>
       <c r="B7" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="13"/>
@@ -2774,7 +2780,7 @@
     <row r="8" spans="1:53" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="14"/>
@@ -2796,16 +2802,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>70</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -2825,7 +2831,7 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -2845,7 +2851,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -2864,21 +2870,21 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -2892,12 +2898,12 @@
     <row r="13" spans="1:53" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -2917,7 +2923,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -2937,7 +2943,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -2956,14 +2962,14 @@
         <v>2</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -2993,14 +2999,14 @@
         <v>3</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
